--- a/oLMpics/gpt2-results/gpt2-large-results.xlsx
+++ b/oLMpics/gpt2-results/gpt2-large-results.xlsx
@@ -486,20 +486,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.6925 0.695  0.7    0.685  0.7075]</t>
+          <t>[0.695  0.6975 0.7025 0.6875 0.71  ]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>69.59999999999999</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>1.043478053618031</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6855652194638197</v>
+        <v>0.6880652194638197</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7064347805361803</v>
+        <v>0.7089347805361803</v>
       </c>
     </row>
     <row r="3">
